--- a/data/results/result1.xlsx
+++ b/data/results/result1.xlsx
@@ -106,22 +106,22 @@
     <t>混合料</t>
   </si>
   <si>
-    <t>巴西粗粉=[8.000844]</t>
-  </si>
-  <si>
-    <t>高品澳粉=[14.99135]</t>
+    <t>巴西粗粉=[8.101071]</t>
+  </si>
+  <si>
+    <t>高品澳粉=[14.15166]</t>
   </si>
   <si>
     <t>高返=[12.5228]</t>
   </si>
   <si>
-    <t>过筛镍矿=[11.4248]</t>
-  </si>
-  <si>
-    <t>塞拉利昂粉=[10.51294]</t>
-  </si>
-  <si>
-    <t>FMG低品澳粉=[38.86969]</t>
+    <t>过筛镍矿=[11.38037]</t>
+  </si>
+  <si>
+    <t>塞拉利昂粉=[10.46049]</t>
+  </si>
+  <si>
+    <t>FMG低品澳粉=[39.70604]</t>
   </si>
   <si>
     <t>铁泥=[0.6015498]</t>
@@ -609,7 +609,7 @@
         <v>566.5</v>
       </c>
       <c r="N2" s="1">
-        <v>8.000844000000001</v>
+        <v>8.101070999999999</v>
       </c>
       <c r="O2">
         <v>8</v>
@@ -656,7 +656,7 @@
         <v>600.5</v>
       </c>
       <c r="N3" s="1">
-        <v>14.99135</v>
+        <v>14.15166</v>
       </c>
       <c r="O3">
         <v>8</v>
@@ -762,7 +762,7 @@
         <v>431.41</v>
       </c>
       <c r="N5" s="1">
-        <v>11.4248</v>
+        <v>11.38037</v>
       </c>
       <c r="O5">
         <v>8</v>
@@ -812,7 +812,7 @@
         <v>498.015344202792</v>
       </c>
       <c r="N6" s="1">
-        <v>10.51294</v>
+        <v>10.46049</v>
       </c>
       <c r="O6">
         <v>8</v>
@@ -859,7 +859,7 @@
         <v>466.846846846847</v>
       </c>
       <c r="N7" s="1">
-        <v>38.86969</v>
+        <v>39.70604</v>
       </c>
       <c r="O7">
         <v>30</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="M12" s="1">
-        <v>443.4584376412935</v>
+        <v>442.5465641171108</v>
       </c>
       <c r="N12" s="1" t="s">
         <v>11</v>
@@ -1153,7 +1153,7 @@
         <v>0.18</v>
       </c>
       <c r="M13" s="1">
-        <v>491.2941143505278</v>
+        <v>490.2393216989115</v>
       </c>
       <c r="N13" s="1" t="s">
         <v>39</v>
@@ -1167,31 +1167,31 @@
         <v>29</v>
       </c>
       <c r="C14">
-        <v>55.96500540304721</v>
+        <v>55.93902915356585</v>
       </c>
       <c r="D14">
-        <v>5.237508012392274</v>
+        <v>5.273845943664956</v>
       </c>
       <c r="E14">
-        <v>2.718728055848679</v>
+        <v>2.717602758161175</v>
       </c>
       <c r="F14">
-        <v>0.7384070806634822</v>
+        <v>0.7374528325382964</v>
       </c>
       <c r="G14">
-        <v>2.999966838752277</v>
+        <v>2.996902503601354</v>
       </c>
       <c r="H14">
-        <v>0.0488677989747518</v>
+        <v>0.04886335799756623</v>
       </c>
       <c r="I14">
-        <v>0.06681134759801378</v>
+        <v>0.06696892503759157</v>
       </c>
       <c r="J14">
-        <v>0.179992948587591</v>
+        <v>0.1792820736713499</v>
       </c>
       <c r="M14" s="1">
-        <v>529.8751823115336</v>
+        <v>528.8377020172885</v>
       </c>
       <c r="N14" s="1" t="s">
         <v>40</v>

--- a/data/results/result1.xlsx
+++ b/data/results/result1.xlsx
@@ -106,22 +106,22 @@
     <t>混合料</t>
   </si>
   <si>
-    <t>巴西粗粉=[8.101071]</t>
-  </si>
-  <si>
-    <t>高品澳粉=[14.15166]</t>
+    <t>巴西粗粉=[8.237801]</t>
+  </si>
+  <si>
+    <t>高品澳粉=[14.99954]</t>
   </si>
   <si>
     <t>高返=[12.5228]</t>
   </si>
   <si>
-    <t>过筛镍矿=[11.38037]</t>
-  </si>
-  <si>
-    <t>塞拉利昂粉=[10.46049]</t>
-  </si>
-  <si>
-    <t>FMG低品澳粉=[39.70604]</t>
+    <t>过筛镍矿=[8.017757]</t>
+  </si>
+  <si>
+    <t>塞拉利昂粉=[12.69013]</t>
+  </si>
+  <si>
+    <t>FMG低品澳粉=[39.8544]</t>
   </si>
   <si>
     <t>铁泥=[0.6015498]</t>
@@ -609,7 +609,7 @@
         <v>566.5</v>
       </c>
       <c r="N2" s="1">
-        <v>8.101070999999999</v>
+        <v>8.237800999999999</v>
       </c>
       <c r="O2">
         <v>8</v>
@@ -656,7 +656,7 @@
         <v>600.5</v>
       </c>
       <c r="N3" s="1">
-        <v>14.15166</v>
+        <v>14.99954</v>
       </c>
       <c r="O3">
         <v>8</v>
@@ -762,7 +762,7 @@
         <v>431.41</v>
       </c>
       <c r="N5" s="1">
-        <v>11.38037</v>
+        <v>8.017757</v>
       </c>
       <c r="O5">
         <v>8</v>
@@ -812,7 +812,7 @@
         <v>498.015344202792</v>
       </c>
       <c r="N6" s="1">
-        <v>10.46049</v>
+        <v>12.69013</v>
       </c>
       <c r="O6">
         <v>8</v>
@@ -859,7 +859,7 @@
         <v>466.846846846847</v>
       </c>
       <c r="N7" s="1">
-        <v>39.70604</v>
+        <v>39.8544</v>
       </c>
       <c r="O7">
         <v>30</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="M12" s="1">
-        <v>442.5465641171108</v>
+        <v>448.5638441542192</v>
       </c>
       <c r="N12" s="1" t="s">
         <v>11</v>
@@ -1153,7 +1153,7 @@
         <v>0.18</v>
       </c>
       <c r="M13" s="1">
-        <v>490.2393216989115</v>
+        <v>492.9226702376321</v>
       </c>
       <c r="N13" s="1" t="s">
         <v>39</v>
@@ -1167,31 +1167,31 @@
         <v>29</v>
       </c>
       <c r="C14">
-        <v>55.93902915356585</v>
+        <v>56.20798729191287</v>
       </c>
       <c r="D14">
-        <v>5.273845943664956</v>
+        <v>5.207317911150676</v>
       </c>
       <c r="E14">
-        <v>2.717602758161175</v>
+        <v>2.6955010101783</v>
       </c>
       <c r="F14">
-        <v>0.7374528325382964</v>
+        <v>0.7094962240740603</v>
       </c>
       <c r="G14">
-        <v>2.996902503601354</v>
+        <v>2.9994922850348</v>
       </c>
       <c r="H14">
-        <v>0.04886335799756623</v>
+        <v>0.04847174640847577</v>
       </c>
       <c r="I14">
-        <v>0.06696892503759157</v>
+        <v>0.0677767360226811</v>
       </c>
       <c r="J14">
-        <v>0.1792820736713499</v>
+        <v>0.1257030487141823</v>
       </c>
       <c r="M14" s="1">
-        <v>528.8377020172885</v>
+        <v>531.0015387113043</v>
       </c>
       <c r="N14" s="1" t="s">
         <v>40</v>
